--- a/output/date/2022-01-12/2022-01-12_PC본체.xlsx
+++ b/output/date/2022-01-12/2022-01-12_PC본체.xlsx
@@ -1603,28 +1603,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>라이젠 5800X GTX1650 RTX3060 Ti 3070 게이밍컴퓨터 영상편집 배그</t>
+          <t>아이레 게이밍조립컴퓨터 배틀그라운드 오버워치 리그오브레전드 롤 본체 게임용 게이밍PC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83545548964</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82427199759</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8354554/83545548964.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8242719/82427199759.3.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1375000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>블루컴퓨터 BLUECOM</t>
+          <t>아이레코리아</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1657,28 +1657,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아이레 게이밍조립컴퓨터 배틀그라운드 오버워치 리그오브레전드 롤 본체 게임용 게이밍PC</t>
+          <t>프리미엄 게이밍 조립컴퓨터 배틀그라운드 오버워치 롤 배그 배틀필드 컴퓨터본체 견적</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82427199759</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80277928794</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8242719/82427199759.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8027792/80277928794.21.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>아이레코리아</t>
+          <t>쿨젠컴퓨터</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1686,8 +1686,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>쿨젠컴퓨터</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>쿨젠</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1711,28 +1719,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>프리미엄 게이밍 조립컴퓨터 배틀그라운드 오버워치 롤 배그 배틀필드 컴퓨터본체 견적</t>
+          <t>라이젠 5800X GTX1650 RTX3060 Ti 3070 게이밍컴퓨터 영상편집 배그</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80277928794</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83545548964</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8027792/80277928794.21.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8354554/83545548964.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>1375000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>쿨젠컴퓨터</t>
+          <t>블루컴퓨터 BLUECOM</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1740,16 +1748,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>쿨젠컴퓨터</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>쿨젠</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1773,28 +1773,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>어도비 포토샵 컴퓨터 일러스트 디자인용 PC 오토캐드 본체 사양</t>
+          <t>LG데스크탑 Z50/70 i5-3470 SSD장착 사무용컴퓨터본체</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82148907581</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18796925108</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8214890/82148907581.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879692/18796925108.2.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>235000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>메가컴퓨터</t>
+          <t>인터파크</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1802,8 +1802,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1827,28 +1835,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG데스크탑 Z50/70 i5-3470 SSD장착 사무용컴퓨터본체</t>
+          <t>어도비 포토샵 컴퓨터 일러스트 디자인용 PC 오토캐드 본체 사양</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18796925108</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82148907581</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879692/18796925108.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8214890/82148907581.6.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>235000</t>
+          <t>490000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>인터파크</t>
+          <t>메가컴퓨터</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1856,16 +1864,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2407,28 +2407,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[하이마트]포유컴퓨터 라이젠 R5 컴퓨터본체(5600X/RX6600XT)조립PC</t>
+          <t>게이밍 컴퓨터 조립PC RTX2060 컴퓨터본체 견적 윈도우 포함</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28544195291</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83560670111</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854419/28544195291.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8356067/83560670111.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1556000</t>
+          <t>648640</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>하이마트쇼핑몰</t>
+          <t>인터클러스터시스템</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2437,11 +2437,7 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>포유컴퓨터</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2465,28 +2461,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>게이밍 컴퓨터 조립PC RTX2060 컴퓨터본체 견적 윈도우 포함</t>
+          <t>[하이마트]포유컴퓨터 라이젠 R5 컴퓨터본체(5600X/RX6600XT)조립PC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83560670111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28544195291</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8356067/83560670111.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2854419/28544195291.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>648640</t>
+          <t>1556000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>인터클러스터시스템</t>
+          <t>하이마트쇼핑몰</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2495,7 +2491,11 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>포유컴퓨터</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2855,28 +2855,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>컴퓨터 중고 본체 조립 i5 6500 6세대 GTX1060 3G</t>
+          <t>삼성 조립 컴퓨터 본체 27인치 모니터 세트 롤 메이플 던파</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83009330619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82969642005</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8300933/83009330619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8296964/82969642005.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>590000</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>리메이드컴퓨터</t>
+          <t>윤자씨네</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2909,28 +2909,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>삼성 조립 컴퓨터 본체 27인치 모니터 세트 롤 메이플 던파</t>
+          <t>컴퓨터 중고 본체 조립 i5 6500 6세대 GTX1060 3G</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82969642005</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83009330619</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8296964/82969642005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8300933/83009330619.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>590000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>윤자씨네</t>
+          <t>리메이드컴퓨터</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3747,28 +3747,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10세대 게이밍컴퓨터 배틀그라운드 리니지W 로스트아크 디아2레저렉션 PC 본체</t>
+          <t>i7 12700KF RTX3080 컴퓨터 본체 RB275 게이밍 PC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82145330176</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83630041028</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8214533/82145330176.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8363004/83630041028.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>658000</t>
+          <t>4221000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>아이디컴퓨터</t>
+          <t>리메이드컴퓨터</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3777,11 +3777,7 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>아이디컴퓨터</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3805,28 +3801,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>i7 12700KF RTX3080 컴퓨터 본체 RB275 게이밍 PC</t>
+          <t>포유컴퓨터 인텔 게이밍 i7 컴퓨터본체(10700/16G/250G)조립PC</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83630041028</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28590326158</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8363004/83630041028.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2859032/28590326158.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4221000</t>
+          <t>613000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>리메이드컴퓨터</t>
+          <t>롯데ON</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3835,7 +3831,11 @@
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>포유컴퓨터</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3859,28 +3859,28 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>포유컴퓨터 인텔 게이밍 i7 컴퓨터본체(10700/16G/250G)조립PC</t>
+          <t>10세대 게이밍컴퓨터 배틀그라운드 리니지W 로스트아크 디아2레저렉션 PC 본체</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28590326158</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82145330176</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2859032/28590326158.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8214533/82145330176.8.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>613000</t>
+          <t>658000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>롯데ON</t>
+          <t>아이디컴퓨터</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3891,7 +3891,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>포유컴퓨터</t>
+          <t>아이디컴퓨터</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4809,28 +4809,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>조립컴퓨터 AMD 풀세트 배틀그라운드 롤 RX6600 사무용 본체 견적 디아2 레저렉션</t>
+          <t>중고 컴퓨터 본체 i7 7700 7세대 GTX1070 8G</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83560905478</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83009330694</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8356090/83560905478.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8300933/83009330694.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>1126000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>초이스컴</t>
+          <t>리메이드컴퓨터</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4838,16 +4838,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>초이스컴</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>초이스컴</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4871,28 +4863,28 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>중고 컴퓨터 본체 i7 7700 7세대 GTX1070 8G</t>
+          <t>i7 11700F RTX3060Ti 배그전용 방송용 고사양 컴퓨터 본체PC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83009330694</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83600121437</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8300933/83009330694.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8360012/83600121437.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1126000</t>
+          <t>2147000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>리메이드컴퓨터</t>
+          <t>컴스컴바인</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4925,28 +4917,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>i7 11700F RTX3060Ti 배그전용 방송용 고사양 컴퓨터 본체PC</t>
+          <t>조립컴퓨터 AMD 풀세트 배틀그라운드 롤 RX6600 사무용 본체 견적 디아2 레저렉션</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83600121437</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83560905478</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8360012/83600121437.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8356090/83560905478.2.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2147000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>컴스컴바인</t>
+          <t>초이스컴</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4954,8 +4946,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>초이스컴</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>초이스컴</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4979,28 +4979,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>인텔12세대 i5 컴퓨터본체(12400F/RX6600)조립PC</t>
+          <t>피씨홀릭 배그용컴퓨터 조립PC 컴퓨터 본체 라이젠 3500x 2060 super</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29621216094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82686440531</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2962121/29621216094.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8268644/82686440531.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1369000</t>
+          <t>1599000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>인터파크</t>
+          <t>PC Holic</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5009,11 +5009,7 @@
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>포유컴퓨터</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5037,28 +5033,28 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>피씨홀릭 배그용컴퓨터 조립PC 컴퓨터 본체 라이젠 3500x 2060 super</t>
+          <t>인텔12세대 i5 컴퓨터본체(12400F/RX6600)조립PC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82686440531</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29621216094</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8268644/82686440531.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2962121/29621216094.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1599000</t>
+          <t>1369000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PC Holic</t>
+          <t>인터파크</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5067,7 +5063,11 @@
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>포유컴퓨터</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5423,28 +5423,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>완본체 영상편집용 배그용 중고컴퓨터본체 서든컴퓨터</t>
+          <t>LG S급 외관 슬림형 초고속 i3 i5 사무용 컴퓨터 본체</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83705242553</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18859911510</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8370524/83705242553.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1885991/18859911510.1.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>198550</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>아이비컴즈</t>
+          <t>인터파크</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5452,8 +5452,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5477,28 +5485,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LG S급 외관 슬림형 초고속 i3 i5 사무용 컴퓨터 본체</t>
+          <t>완본체 영상편집용 배그용 중고컴퓨터본체 서든컴퓨터</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18859911510</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83705242553</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1885991/18859911510.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8370524/83705242553.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>198550</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>인터파크</t>
+          <t>아이비컴즈</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5506,16 +5514,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5539,28 +5539,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>삼성전자 화이트 게이밍 조립식 i5-7500 GTX1060 컴퓨터 본체</t>
+          <t>라이젠 게이밍 R5 컴퓨터본체(5600X/GTX1650)조립PC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26580822837</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82254931550</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2658082/26580822837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8225493/82254931550.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>688500</t>
+          <t>1036000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>G마켓</t>
+          <t>주식회사 포유컴퓨터</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5570,14 +5570,10 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>삼성</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>FORYOUCOM</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5601,28 +5597,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>라이젠 게이밍 R5 컴퓨터본체(5600X/GTX1650)조립PC</t>
+          <t>i7 12700KF RTX3070 8GB 컴퓨터 본체 RB273 게이밍 PC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82254931550</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83630095060</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8225493/82254931550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8363009/83630095060.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1036000</t>
+          <t>3247000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>주식회사 포유컴퓨터</t>
+          <t>리메이드컴퓨터</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5630,11 +5626,7 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>FORYOUCOM</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -5659,28 +5651,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>프리플로우 GAMING R5 R6 컴퓨터본체,AMD 라이젠5 5600X,라데온 RX6600 조립PC</t>
+          <t>삼성전자 화이트 게이밍 조립식 i5-7500 GTX1060 컴퓨터 본체</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29224410733</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26580822837</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2922441/29224410733.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2658082/26580822837.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1479000</t>
+          <t>688500</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>롯데ON</t>
+          <t>G마켓</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5690,12 +5682,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>프리플로우</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>프리플로우</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5721,28 +5713,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>i7 12700KF RTX3070 8GB 컴퓨터 본체 RB273 게이밍 PC</t>
+          <t>프리플로우 GAMING R5 R6 컴퓨터본체,AMD 라이젠5 5600X,라데온 RX6600 조립PC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83630095060</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29224410733</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8363009/83630095060.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2922441/29224410733.1.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3247000</t>
+          <t>1479000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>리메이드컴퓨터</t>
+          <t>롯데ON</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5750,8 +5742,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>프리플로우</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>프리플로우</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5945,28 +5945,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>12400F 12세대 RTX3060 PC 컴퓨터 게이밍 본체 RB242</t>
+          <t>인텔 게이밍 i7 컴퓨터본체(10700/16G/250G)조립PC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83706280315</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7958233834</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8370628/83706280315.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7958233/7958233834.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1662000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>리메이드컴퓨터</t>
+          <t>주식회사 포유컴퓨터</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5974,7 +5974,11 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>FORYOUCOM</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -5999,28 +6003,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>인텔 게이밍 i7 컴퓨터본체(10700/16G/250G)조립PC</t>
+          <t>12400F 12세대 RTX3060 PC 컴퓨터 게이밍 본체 RB242</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7958233834</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83706280315</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7958233/7958233834.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8370628/83706280315.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>1662000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>주식회사 포유컴퓨터</t>
+          <t>리메이드컴퓨터</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6028,11 +6032,7 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>FORYOUCOM</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
